--- a/biology/Botanique/Piment_Guajillo/Piment_Guajillo.xlsx
+++ b/biology/Botanique/Piment_Guajillo/Piment_Guajillo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le piment guajillo ou guajillo chili ou chile guaco (espagnol : chile guajillo) ou mirasol chili est une variété de l'espèce Capsicum annuum à fruit « mirasol »(regardant le soleil) du Chili. « Mirasol » est utilisé pour désigner le poivre frais, et le terme « guajillo » est utilisé pour la forme sèche, qui est le deuxième piment séché le plus courant dans la cuisine mexicaine[1],[2],[3],[4].
+Le piment guajillo ou guajillo chili ou chile guaco (espagnol : chile guajillo) ou mirasol chili est une variété de l'espèce Capsicum annuum à fruit « mirasol »(regardant le soleil) du Chili. « Mirasol » est utilisé pour désigner le poivre frais, et le terme « guajillo » est utilisé pour la forme sèche, qui est le deuxième piment séché le plus courant dans la cuisine mexicaine.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le piment guajillo a une couleur brun rougeâtre plutôt foncée et une peau fine, lisse et brillante. Il mesure environ 8 à 10 cm de long. En termes de saveur, il est généralement défini comme sucré et quelque peu fruité[5]. Le piquant varie considérablement de 2 000 SHU[6], c'est-à-dire légèrement piquant, jusqu'à 15 000 SHU[7], c'est-à-dire modérément chaud.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le piment guajillo a une couleur brun rougeâtre plutôt foncée et une peau fine, lisse et brillante. Il mesure environ 8 à 10 cm de long. En termes de saveur, il est généralement défini comme sucré et quelque peu fruité. Le piquant varie considérablement de 2 000 SHU, c'est-à-dire légèrement piquant, jusqu'à 15 000 SHU, c'est-à-dire modérément chaud.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'État mexicain de Zacatecas est l'un des principaux producteurs de piments guajillo. Il existe deux variétés principales qui se distinguent par leur taille et leurs facteurs thermiques. Le guajillo « puya » est le plus petit et le plus chaud des deux (en espagnol, puyar signifie piquer ou piquer). En revanche, le « guajillo » plus long et plus large a une saveur plus prononcée et plus riche et est un peu moins épicé. Avec une note de 2 500 à 5 000 sur l'échelle de Scoville, sa chaleur est considérée comme douce à moyenne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'État mexicain de Zacatecas est l'un des principaux producteurs de piments guajillo. Il existe deux variétés principales qui se distinguent par leur taille et leurs facteurs thermiques. Le guajillo « puya » est le plus petit et le plus chaud des deux (en espagnol, puyar signifie piquer ou piquer). En revanche, le « guajillo » plus long et plus large a une saveur plus prononcée et plus riche et est un peu moins épicé. Avec une note de 2 500 à 5 000 sur l'échelle de Scoville, sa chaleur est considérée comme douce à moyenne.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les piments guajillo sont utilisés dans de nombreuses préparations mexicaines: 
 Par exemple, ils servent parfois à préparer de la salsa ou la mole pour les tamales ; les piments secs sont épépinés, trempés ou mijotés, puis pulvérisés, écrasés ou réduits en purée, puis cuits avec plusieurs autres ingrédients pour produire des sauces savoureuses.
